--- a/analysis/thalamus/figures_tables/edss_regressions/thalamic_nuclei.xlsx
+++ b/analysis/thalamus/figures_tables/edss_regressions/thalamic_nuclei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\srs-9\Projects\ms_mri\analysis\thalamus\figures_tables\edss_regressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEC3F4F-6035-4A45-94DB-D978476F029A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB7D5DA-F6E2-40D3-8D30-199A8D447378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>coef</t>
   </si>
@@ -44,64 +44,73 @@
     <t>p_fdr</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>AV_2</t>
+  </si>
+  <si>
+    <t>[-0.340305, -0.151995]</t>
+  </si>
+  <si>
+    <t>THALAMUS_1</t>
+  </si>
+  <si>
+    <t>[-0.334926, -0.142382]</t>
+  </si>
+  <si>
+    <t>Pul_8</t>
+  </si>
+  <si>
+    <t>[-0.314127, -0.135316]</t>
+  </si>
+  <si>
     <t>VLP_6</t>
   </si>
   <si>
-    <t>[-0.371536, -0.178750]</t>
-  </si>
-  <si>
-    <t>Pul_8</t>
-  </si>
-  <si>
-    <t>[-0.352835, -0.176135]</t>
+    <t>[-0.322426, -0.124059]</t>
   </si>
   <si>
     <t>VPL_7</t>
   </si>
   <si>
-    <t>[-0.355490, -0.171231]</t>
-  </si>
-  <si>
-    <t>AV_2</t>
-  </si>
-  <si>
-    <t>[-0.345964, -0.158932]</t>
+    <t>[-0.312219, -0.126823]</t>
   </si>
   <si>
     <t>LGN_9</t>
   </si>
   <si>
-    <t>[-0.333189, -0.164161]</t>
+    <t>[-0.296814, -0.127752]</t>
+  </si>
+  <si>
+    <t>MGN_10</t>
+  </si>
+  <si>
+    <t>[-0.288820, -0.097881]</t>
   </si>
   <si>
     <t>MD_Pf_12</t>
   </si>
   <si>
-    <t>[-0.326908, -0.149455]</t>
-  </si>
-  <si>
-    <t>MGN_10</t>
-  </si>
-  <si>
-    <t>[-0.328204, -0.137223]</t>
+    <t>[-0.276241, -0.093440]</t>
   </si>
   <si>
     <t>VLa_5</t>
   </si>
   <si>
-    <t>[-0.305925, -0.097036]</t>
+    <t>[-0.271315, -0.063604]</t>
   </si>
   <si>
     <t>CM_11</t>
   </si>
   <si>
-    <t>[-0.260973, -0.067309]</t>
+    <t>[-0.227993, -0.036256]</t>
   </si>
   <si>
     <t>VA_4</t>
   </si>
   <si>
-    <t>[-0.255283, -0.043377]</t>
+    <t>[-0.213212, -0.001563]</t>
   </si>
 </sst>
 </file>
@@ -464,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H11"/>
+      <selection activeCell="I12" sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,265 +503,327 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.2751432104922179</v>
+        <v>-0.24615041775797869</v>
       </c>
       <c r="C2">
-        <v>4.9881067219119571E-2</v>
+        <v>5.0050756632045668E-2</v>
       </c>
       <c r="D2">
-        <v>-0.37153605888817243</v>
+        <v>-0.34030545877748569</v>
       </c>
       <c r="E2">
-        <v>-0.17875036209626341</v>
+        <v>-0.1519953767384716</v>
       </c>
       <c r="F2">
-        <v>3.5542989510260128E-8</v>
+        <v>4.1621199096688659E-7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>8.8857473775650312E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.1491206958896311E-6</v>
+      </c>
+      <c r="I2">
+        <v>0.28747055927584952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.26448505868808048</v>
+        <v>-0.23865429701298149</v>
       </c>
       <c r="C3">
-        <v>4.3973434942855723E-2</v>
+        <v>4.5351050778043453E-2</v>
       </c>
       <c r="D3">
-        <v>-0.35283538551695559</v>
+        <v>-0.33492628966716298</v>
       </c>
       <c r="E3">
-        <v>-0.1761347318592055</v>
+        <v>-0.1423823043588</v>
       </c>
       <c r="F3">
-        <v>7.8841057246257958E-9</v>
+        <v>1.538311773116924E-6</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>6.904379109576564E-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.2303573760715401E-6</v>
+      </c>
+      <c r="I3">
+        <v>0.29741429795517199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.26336058188577571</v>
+        <v>-0.22472131276433999</v>
       </c>
       <c r="C4">
-        <v>4.5892674457628999E-2</v>
+        <v>4.2781241230300762E-2</v>
       </c>
       <c r="D4">
-        <v>-0.35548978949199378</v>
+        <v>-0.31412692542486648</v>
       </c>
       <c r="E4">
-        <v>-0.17123137427955759</v>
+        <v>-0.13531570010381341</v>
       </c>
       <c r="F4">
-        <v>3.3991009279143079E-8</v>
+        <v>1.1079483922195289E-6</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>8.8857473775650312E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.1491206958896311E-6</v>
+      </c>
+      <c r="I4">
+        <v>0.29897073203248897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.25244823699013119</v>
+        <v>-0.22324239075985591</v>
       </c>
       <c r="C5">
-        <v>5.0027788335263869E-2</v>
+        <v>4.9036422849865077E-2</v>
       </c>
       <c r="D5">
-        <v>-0.34596418003594392</v>
+        <v>-0.32242596662333273</v>
       </c>
       <c r="E5">
-        <v>-0.1589322939443186</v>
+        <v>-0.124058814896379</v>
       </c>
       <c r="F5">
-        <v>1.772023015430611E-7</v>
+        <v>1.221863967897825E-5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>3.4396960112455568E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2.2400839411460119E-5</v>
+      </c>
+      <c r="I5">
+        <v>0.28446797492662551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.24867479520465269</v>
+        <v>-0.21952090470789329</v>
       </c>
       <c r="C6">
-        <v>4.021233616122602E-2</v>
+        <v>4.3712757096545082E-2</v>
       </c>
       <c r="D6">
-        <v>-0.33318874253634972</v>
+        <v>-0.31221875372960139</v>
       </c>
       <c r="E6">
-        <v>-0.16416084787295571</v>
+        <v>-0.12682305568618529</v>
       </c>
       <c r="F6">
-        <v>1.3808758219153129E-8</v>
+        <v>4.2974709192063254E-6</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>6.904379109576564E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9.4544360222539143E-6</v>
+      </c>
+      <c r="I6">
+        <v>0.29337229048486702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>-0.23818147244120799</v>
+        <v>-0.21228306196111479</v>
       </c>
       <c r="C7">
-        <v>4.3913538468392743E-2</v>
+        <v>3.9496923128702552E-2</v>
       </c>
       <c r="D7">
-        <v>-0.32690791892812648</v>
+        <v>-0.29681441288797011</v>
       </c>
       <c r="E7">
-        <v>-0.14945502595428939</v>
+        <v>-0.12775171103425961</v>
       </c>
       <c r="F7">
-        <v>2.063817606747334E-7</v>
+        <v>1.1315783716062631E-6</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>3.4396960112455568E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.1491206958896311E-6</v>
+      </c>
+      <c r="I7">
+        <v>0.29688320653419897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>-0.23271341316707159</v>
+        <v>-0.19335063938812799</v>
       </c>
       <c r="C8">
-        <v>4.5302378513744301E-2</v>
+        <v>4.3737950995670412E-2</v>
       </c>
       <c r="D8">
-        <v>-0.32820407383023892</v>
+        <v>-0.28882039445235003</v>
       </c>
       <c r="E8">
-        <v>-0.13722275250390431</v>
+        <v>-9.7880884323906084E-2</v>
       </c>
       <c r="F8">
-        <v>2.277098702852639E-6</v>
+        <v>8.035348610239966E-5</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>3.2529981469323409E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.131066628149858E-4</v>
+      </c>
+      <c r="I8">
+        <v>0.27768026017874758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>-0.20148041414847989</v>
+        <v>-0.18484037535283351</v>
       </c>
       <c r="C9">
-        <v>5.2686297344531167E-2</v>
+        <v>4.3351707960159892E-2</v>
       </c>
       <c r="D9">
-        <v>-0.3059251230896749</v>
+        <v>-0.2762406759327799</v>
       </c>
       <c r="E9">
-        <v>-9.7035705207284967E-2</v>
+        <v>-9.3440074772887169E-2</v>
       </c>
       <c r="F9">
-        <v>1.7048915989936519E-4</v>
+        <v>8.2259391138171466E-5</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>2.131114498742065E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.131066628149858E-4</v>
+      </c>
+      <c r="I9">
+        <v>0.28028904152403128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>-0.16414103036897049</v>
+        <v>-0.1674597856889245</v>
       </c>
       <c r="C10">
-        <v>5.0984959868625758E-2</v>
+        <v>4.9402418881686859E-2</v>
       </c>
       <c r="D10">
-        <v>-0.26097279379492128</v>
+        <v>-0.27131520441004298</v>
       </c>
       <c r="E10">
-        <v>-6.7309266943019655E-2</v>
+        <v>-6.360436696780597E-2</v>
       </c>
       <c r="F10">
-        <v>9.3575358242334132E-4</v>
+        <v>1.6353780970952379E-3</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>1.039726202692602E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.9987954520052911E-3</v>
+      </c>
+      <c r="I10">
+        <v>0.26418576700873631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>-0.14932997499798309</v>
+        <v>-0.13212484018181761</v>
       </c>
       <c r="C11">
-        <v>5.3561632776792739E-2</v>
+        <v>4.8073343272854258E-2</v>
       </c>
       <c r="D11">
-        <v>-0.255283200501769</v>
+        <v>-0.22799336792827249</v>
       </c>
       <c r="E11">
-        <v>-4.3376749494197203E-2</v>
+        <v>-3.6256312435362689E-2</v>
       </c>
       <c r="F11">
-        <v>5.8412772691676272E-3</v>
+        <v>7.0177857092931211E-3</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>5.8412772691676272E-3</v>
+        <v>7.7195642802224337E-3</v>
+      </c>
+      <c r="I11">
+        <v>0.26236077832422239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>-0.1073874781457871</v>
+      </c>
+      <c r="C12">
+        <v>5.1359808474214737E-2</v>
+      </c>
+      <c r="D12">
+        <v>-0.2132121258545355</v>
+      </c>
+      <c r="E12">
+        <v>-1.562830437038795E-3</v>
+      </c>
+      <c r="F12">
+        <v>4.6725293418377771E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>4.6725293418377771E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.25328866457329102</v>
       </c>
     </row>
   </sheetData>
@@ -762,16 +833,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F98D049-B5F9-4B24-AED9-876561D33130}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC95EA67-3DCC-490C-9E85-60FA114B416F}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,145 +852,195 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.2751432104922179</v>
+        <v>-0.24615041775797869</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>8.8857473775650312E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.1491206958896311E-6</v>
+      </c>
+      <c r="E2">
+        <v>0.28747055927584952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.26448505868808048</v>
+        <v>-0.23865429701298149</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>6.904379109576564E-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.2303573760715401E-6</v>
+      </c>
+      <c r="E3">
+        <v>0.29741429795517199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.26336058188577571</v>
+        <v>-0.22472131276433999</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>8.8857473775650312E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.1491206958896311E-6</v>
+      </c>
+      <c r="E4">
+        <v>0.29897073203248897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.25244823699013119</v>
+        <v>-0.22324239075985591</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>3.4396960112455568E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.2400839411460119E-5</v>
+      </c>
+      <c r="E5">
+        <v>0.28446797492662551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.24867479520465269</v>
+        <v>-0.21952090470789329</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>6.904379109576564E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.4544360222539143E-6</v>
+      </c>
+      <c r="E6">
+        <v>0.29337229048486702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>-0.23818147244120799</v>
+        <v>-0.21228306196111479</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>3.4396960112455568E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4.1491206958896311E-6</v>
+      </c>
+      <c r="E7">
+        <v>0.29688320653419897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>-0.23271341316707159</v>
+        <v>-0.19335063938812799</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>3.2529981469323409E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.131066628149858E-4</v>
+      </c>
+      <c r="E8">
+        <v>0.27768026017874758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>-0.20148041414847989</v>
+        <v>-0.18484037535283351</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>2.131114498742065E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.131066628149858E-4</v>
+      </c>
+      <c r="E9">
+        <v>0.28028904152403128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>-0.16414103036897049</v>
+        <v>-0.1674597856889245</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>1.039726202692602E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.9987954520052911E-3</v>
+      </c>
+      <c r="E10">
+        <v>0.26418576700873631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>-0.14932997499798309</v>
+        <v>-0.13212484018181761</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>5.8412772691676272E-3</v>
+        <v>7.7195642802224337E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.26236077832422239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>-0.1073874781457871</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>4.6725293418377771E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.25328866457329102</v>
       </c>
     </row>
   </sheetData>
